--- a/reg.xlsx
+++ b/reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobec\Desktop\global-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5111E501-9D87-4796-BEB1-257B7801F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F35C0C-C353-4DAD-B2ED-14CC13A28BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{D5F353F2-2A04-49B9-B45A-F1F2A021C9A8}"/>
+    <workbookView xWindow="32340" yWindow="3435" windowWidth="21600" windowHeight="11835" xr2:uid="{D5F353F2-2A04-49B9-B45A-F1F2A021C9A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,14 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589B397D-A95A-486B-945E-C22042D069F6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -592,45 +593,69 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>36583</v>
+      </c>
+      <c r="J7">
+        <v>2541324323</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -645,18 +670,18 @@
         <v>36583</v>
       </c>
       <c r="J8">
-        <v>2541324323</v>
+        <v>2541324324</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -671,18 +696,18 @@
         <v>36583</v>
       </c>
       <c r="J9">
-        <v>2541324324</v>
+        <v>2541324325</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -697,41 +722,15 @@
         <v>36583</v>
       </c>
       <c r="J10">
-        <v>2541324325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11">
-        <v>36583</v>
-      </c>
-      <c r="J11">
         <v>2541324326</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{4C34DA6E-3C9A-42CF-BA46-AA8B8D4444CB}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{4D80177D-93D6-4840-8FD5-39A9CD4414FE}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{36607C94-5B00-45AC-B3C6-C2FDB759BB4E}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{8A537D57-F180-4A27-9F8F-D12354BCCCE7}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{4C34DA6E-3C9A-42CF-BA46-AA8B8D4444CB}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{4D80177D-93D6-4840-8FD5-39A9CD4414FE}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{36607C94-5B00-45AC-B3C6-C2FDB759BB4E}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{8A537D57-F180-4A27-9F8F-D12354BCCCE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
